--- a/Major elements of tested sideromelane and palagonites.xlsx
+++ b/Major elements of tested sideromelane and palagonites.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
   <si>
     <t>Type</t>
   </si>
@@ -350,6 +350,18 @@
       <t>O</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BHVO 2G</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>BHVO 2G: Standard sample (Coulthard Jr 2018); Sid: Sideromelane; Pal: Palagonite</t>
+  </si>
+  <si>
+    <t>Table S1 Major elements of tested sideromelanes and palagonites</t>
   </si>
 </sst>
 </file>
@@ -687,11 +699,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -699,127 +709,88 @@
     <col min="3" max="13" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.4" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1">
-        <v>35.33</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="E2" s="1">
-        <v>7.93</v>
-      </c>
-      <c r="F2" s="1">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="I2" s="1">
-        <v>33.31</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>96.78</v>
-      </c>
-      <c r="M2" s="1">
-        <v>3.22</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1">
-        <v>35.56</v>
+        <v>49.3</v>
       </c>
       <c r="D3" s="1">
-        <v>1.76</v>
+        <v>2.79</v>
       </c>
       <c r="E3" s="1">
-        <v>8.23</v>
+        <v>13.6</v>
       </c>
       <c r="F3" s="1">
-        <v>17.23</v>
+        <v>11.3</v>
       </c>
       <c r="G3" s="1">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="H3" s="1">
-        <v>0.34</v>
+        <v>7.13</v>
       </c>
       <c r="I3" s="1">
-        <v>33.9</v>
+        <v>11.4</v>
       </c>
       <c r="J3" s="1">
-        <v>0.08</v>
+        <v>2.4</v>
       </c>
       <c r="K3" s="1">
-        <v>0.01</v>
+        <v>0.51</v>
       </c>
       <c r="L3" s="1">
-        <v>97.38</v>
-      </c>
-      <c r="M3" s="1">
-        <v>2.62</v>
+        <v>98.6</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
@@ -827,40 +798,40 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>35.25</v>
+        <v>35.33</v>
       </c>
       <c r="D4" s="1">
-        <v>2.79</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>8.0399999999999991</v>
+        <v>7.93</v>
       </c>
       <c r="F4" s="1">
-        <v>16.66</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="G4" s="1">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="H4" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="I4" s="1">
-        <v>34.19</v>
+        <v>33.31</v>
       </c>
       <c r="J4" s="1">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K4" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>97.62</v>
+        <v>96.78</v>
       </c>
       <c r="M4" s="1">
-        <v>2.38</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
@@ -868,40 +839,40 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>35.28</v>
+        <v>35.56</v>
       </c>
       <c r="D5" s="1">
-        <v>2.77</v>
+        <v>1.76</v>
       </c>
       <c r="E5" s="1">
-        <v>8.0500000000000007</v>
+        <v>8.23</v>
       </c>
       <c r="F5" s="1">
-        <v>16.68</v>
+        <v>17.23</v>
       </c>
       <c r="G5" s="1">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="H5" s="1">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="I5" s="1">
-        <v>33.1</v>
+        <v>33.9</v>
       </c>
       <c r="J5" s="1">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="K5" s="1">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L5" s="1">
-        <v>96.46</v>
+        <v>97.38</v>
       </c>
       <c r="M5" s="1">
-        <v>3.54</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
@@ -909,40 +880,40 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>35.82</v>
+        <v>35.25</v>
       </c>
       <c r="D6" s="1">
-        <v>1.48</v>
+        <v>2.79</v>
       </c>
       <c r="E6" s="1">
-        <v>8.2899999999999991</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="F6" s="1">
-        <v>16.89</v>
+        <v>16.66</v>
       </c>
       <c r="G6" s="1">
         <v>0.2</v>
       </c>
       <c r="H6" s="1">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I6" s="1">
-        <v>34.18</v>
+        <v>34.19</v>
       </c>
       <c r="J6" s="1">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="L6" s="1">
-        <v>97.23</v>
+        <v>97.62</v>
       </c>
       <c r="M6" s="1">
-        <v>2.77</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
@@ -950,40 +921,40 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>34.89</v>
+        <v>35.28</v>
       </c>
       <c r="D7" s="1">
-        <v>2.34</v>
+        <v>2.77</v>
       </c>
       <c r="E7" s="1">
-        <v>7.88</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="F7" s="1">
-        <v>16.850000000000001</v>
+        <v>16.68</v>
       </c>
       <c r="G7" s="1">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="H7" s="1">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="I7" s="1">
-        <v>34.75</v>
+        <v>33.1</v>
       </c>
       <c r="J7" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
       <c r="K7" s="1">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="L7" s="1">
-        <v>97.21</v>
+        <v>96.46</v>
       </c>
       <c r="M7" s="1">
-        <v>2.79</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
@@ -991,40 +962,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
-        <v>35.770000000000003</v>
+        <v>35.82</v>
       </c>
       <c r="D8" s="1">
-        <v>2.0499999999999998</v>
+        <v>1.48</v>
       </c>
       <c r="E8" s="1">
-        <v>7.91</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="F8" s="1">
-        <v>16.88</v>
+        <v>16.89</v>
       </c>
       <c r="G8" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="H8" s="1">
-        <v>0.36</v>
+        <v>0.27</v>
       </c>
       <c r="I8" s="1">
-        <v>33.96</v>
+        <v>34.18</v>
       </c>
       <c r="J8" s="1">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="K8" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>97.26</v>
+        <v>97.23</v>
       </c>
       <c r="M8" s="1">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
@@ -1032,40 +1003,40 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
-        <v>35.85</v>
+        <v>34.89</v>
       </c>
       <c r="D9" s="1">
-        <v>1.99</v>
+        <v>2.34</v>
       </c>
       <c r="E9" s="1">
-        <v>8.24</v>
+        <v>7.88</v>
       </c>
       <c r="F9" s="1">
-        <v>17.440000000000001</v>
+        <v>16.850000000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="H9" s="1">
-        <v>0.52</v>
+        <v>0.18</v>
       </c>
       <c r="I9" s="1">
-        <v>33.130000000000003</v>
+        <v>34.75</v>
       </c>
       <c r="J9" s="1">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K9" s="1">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L9" s="1">
-        <v>97.64</v>
+        <v>97.21</v>
       </c>
       <c r="M9" s="1">
-        <v>2.36</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
@@ -1073,122 +1044,122 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
-        <v>35.630000000000003</v>
+        <v>35.770000000000003</v>
       </c>
       <c r="D10" s="1">
-        <v>1.55</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>8.25</v>
+        <v>7.91</v>
       </c>
       <c r="F10" s="1">
-        <v>17.53</v>
+        <v>16.88</v>
       </c>
       <c r="G10" s="1">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H10" s="1">
         <v>0.36</v>
       </c>
       <c r="I10" s="1">
-        <v>34.450000000000003</v>
+        <v>33.96</v>
       </c>
       <c r="J10" s="1">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L10" s="1">
-        <v>98.18</v>
+        <v>97.26</v>
       </c>
       <c r="M10" s="1">
-        <v>1.82</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>35.54</v>
+        <v>35.85</v>
       </c>
       <c r="D11" s="1">
-        <v>2.0299999999999998</v>
+        <v>1.99</v>
       </c>
       <c r="E11" s="1">
-        <v>11.45</v>
+        <v>8.24</v>
       </c>
       <c r="F11" s="1">
-        <v>18.190000000000001</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="G11" s="1">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="H11" s="1">
-        <v>1.69</v>
+        <v>0.52</v>
       </c>
       <c r="I11" s="1">
-        <v>23</v>
+        <v>33.130000000000003</v>
       </c>
       <c r="J11" s="1">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="K11" s="1">
         <v>0.02</v>
       </c>
       <c r="L11" s="1">
-        <v>92.39</v>
+        <v>97.64</v>
       </c>
       <c r="M11" s="1">
-        <v>7.61</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
-        <v>35.71</v>
+        <v>35.630000000000003</v>
       </c>
       <c r="D12" s="1">
-        <v>2.37</v>
+        <v>1.55</v>
       </c>
       <c r="E12" s="1">
-        <v>11.21</v>
+        <v>8.25</v>
       </c>
       <c r="F12" s="1">
-        <v>18.09</v>
+        <v>17.53</v>
       </c>
       <c r="G12" s="1">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="H12" s="1">
-        <v>1.65</v>
+        <v>0.36</v>
       </c>
       <c r="I12" s="1">
-        <v>24.1</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="J12" s="1">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="K12" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>93.46</v>
+        <v>98.18</v>
       </c>
       <c r="M12" s="1">
-        <v>6.54</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
@@ -1196,40 +1167,40 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
-        <v>36.159999999999997</v>
+        <v>35.54</v>
       </c>
       <c r="D13" s="1">
-        <v>2.5499999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>11.7</v>
+        <v>11.45</v>
       </c>
       <c r="F13" s="1">
-        <v>17.989999999999998</v>
+        <v>18.190000000000001</v>
       </c>
       <c r="G13" s="1">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="H13" s="1">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="I13" s="1">
-        <v>23.67</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="K13" s="1">
         <v>0.02</v>
       </c>
       <c r="L13" s="1">
-        <v>94.3</v>
+        <v>92.39</v>
       </c>
       <c r="M13" s="1">
-        <v>5.7</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -1237,40 +1208,40 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1">
-        <v>35.46</v>
+        <v>35.71</v>
       </c>
       <c r="D14" s="1">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="E14" s="1">
-        <v>11.55</v>
+        <v>11.21</v>
       </c>
       <c r="F14" s="1">
-        <v>17.46</v>
+        <v>18.09</v>
       </c>
       <c r="G14" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="H14" s="1">
         <v>1.65</v>
       </c>
       <c r="I14" s="1">
-        <v>23.88</v>
+        <v>24.1</v>
       </c>
       <c r="J14" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="K14" s="1">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L14" s="1">
-        <v>92.77</v>
+        <v>93.46</v>
       </c>
       <c r="M14" s="1">
-        <v>7.23</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
@@ -1278,40 +1249,40 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
-        <v>35.39</v>
+        <v>36.159999999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>2.4</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>11.02</v>
+        <v>11.7</v>
       </c>
       <c r="F15" s="1">
-        <v>18.05</v>
+        <v>17.989999999999998</v>
       </c>
       <c r="G15" s="1">
         <v>0.26</v>
       </c>
       <c r="H15" s="1">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="I15" s="1">
-        <v>24</v>
+        <v>23.67</v>
       </c>
       <c r="J15" s="1">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K15" s="1">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L15" s="1">
-        <v>92.83</v>
+        <v>94.3</v>
       </c>
       <c r="M15" s="1">
-        <v>7.17</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
@@ -1319,40 +1290,40 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
-        <v>34.130000000000003</v>
+        <v>35.46</v>
       </c>
       <c r="D16" s="1">
-        <v>0.9</v>
+        <v>2.27</v>
       </c>
       <c r="E16" s="1">
-        <v>8.16</v>
+        <v>11.55</v>
       </c>
       <c r="F16" s="1">
-        <v>16.71</v>
+        <v>17.46</v>
       </c>
       <c r="G16" s="1">
-        <v>0.43</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>0.57999999999999996</v>
+        <v>1.65</v>
       </c>
       <c r="I16" s="1">
-        <v>32.47</v>
+        <v>23.88</v>
       </c>
       <c r="J16" s="1">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="K16" s="1">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="L16" s="1">
-        <v>93.54</v>
+        <v>92.77</v>
       </c>
       <c r="M16" s="1">
-        <v>6.46</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -1360,40 +1331,40 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1">
-        <v>32.130000000000003</v>
+        <v>35.39</v>
       </c>
       <c r="D17" s="1">
-        <v>0.93</v>
+        <v>2.4</v>
       </c>
       <c r="E17" s="1">
-        <v>7.4</v>
+        <v>11.02</v>
       </c>
       <c r="F17" s="1">
-        <v>15.68</v>
+        <v>18.05</v>
       </c>
       <c r="G17" s="1">
-        <v>0.39</v>
+        <v>0.26</v>
       </c>
       <c r="H17" s="1">
-        <v>0.46</v>
+        <v>1.53</v>
       </c>
       <c r="I17" s="1">
-        <v>34.869999999999997</v>
+        <v>24</v>
       </c>
       <c r="J17" s="1">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="K17" s="1">
         <v>0.05</v>
       </c>
       <c r="L17" s="1">
-        <v>91.93</v>
+        <v>92.83</v>
       </c>
       <c r="M17" s="1">
-        <v>8.07</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
@@ -1401,40 +1372,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1">
-        <v>35.369999999999997</v>
+        <v>34.130000000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="E18" s="1">
-        <v>8.73</v>
+        <v>8.16</v>
       </c>
       <c r="F18" s="1">
-        <v>17.66</v>
+        <v>16.71</v>
       </c>
       <c r="G18" s="1">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="H18" s="1">
-        <v>0.76</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I18" s="1">
-        <v>31.1</v>
+        <v>32.47</v>
       </c>
       <c r="J18" s="1">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="K18" s="1">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="L18" s="1">
-        <v>94.99</v>
+        <v>93.54</v>
       </c>
       <c r="M18" s="1">
-        <v>5.01</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
@@ -1442,40 +1413,40 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
-        <v>36.51</v>
+        <v>32.130000000000003</v>
       </c>
       <c r="D19" s="1">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="E19" s="1">
-        <v>10.09</v>
+        <v>7.4</v>
       </c>
       <c r="F19" s="1">
-        <v>18.25</v>
+        <v>15.68</v>
       </c>
       <c r="G19" s="1">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="H19" s="1">
-        <v>1.1399999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="I19" s="1">
-        <v>28.72</v>
+        <v>34.869999999999997</v>
       </c>
       <c r="J19" s="1">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="K19" s="1">
         <v>0.05</v>
       </c>
       <c r="L19" s="1">
-        <v>96.1</v>
+        <v>91.93</v>
       </c>
       <c r="M19" s="1">
-        <v>3.9</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
@@ -1483,40 +1454,40 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1">
-        <v>35</v>
+        <v>35.369999999999997</v>
       </c>
       <c r="D20" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8.73</v>
+      </c>
+      <c r="F20" s="1">
+        <v>17.66</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="H20" s="1">
         <v>0.76</v>
       </c>
-      <c r="E20" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F20" s="1">
-        <v>17.93</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.34</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.96</v>
-      </c>
       <c r="I20" s="1">
-        <v>30.3</v>
+        <v>31.1</v>
       </c>
       <c r="J20" s="1">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="K20" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="L20" s="1">
-        <v>94.6</v>
+        <v>94.99</v>
       </c>
       <c r="M20" s="1">
-        <v>5.4</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
@@ -1524,40 +1495,40 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1">
-        <v>34.85</v>
+        <v>36.51</v>
       </c>
       <c r="D21" s="1">
-        <v>2.14</v>
+        <v>0.92</v>
       </c>
       <c r="E21" s="1">
-        <v>10.65</v>
+        <v>10.09</v>
       </c>
       <c r="F21" s="1">
-        <v>18.53</v>
+        <v>18.25</v>
       </c>
       <c r="G21" s="1">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="H21" s="1">
-        <v>3.27</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>23.61</v>
+        <v>28.72</v>
       </c>
       <c r="J21" s="1">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="K21" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="L21" s="1">
-        <v>93.52</v>
+        <v>96.1</v>
       </c>
       <c r="M21" s="1">
-        <v>6.48</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -1565,40 +1536,40 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" s="1">
-        <v>1.88</v>
+        <v>0.76</v>
       </c>
       <c r="E22" s="1">
-        <v>12.07</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F22" s="1">
-        <v>19.72</v>
+        <v>17.93</v>
       </c>
       <c r="G22" s="1">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
       <c r="H22" s="1">
-        <v>4.68</v>
+        <v>0.96</v>
       </c>
       <c r="I22" s="1">
-        <v>20.65</v>
+        <v>30.3</v>
       </c>
       <c r="J22" s="1">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K22" s="1">
         <v>0.02</v>
       </c>
       <c r="L22" s="1">
-        <v>93.38</v>
+        <v>94.6</v>
       </c>
       <c r="M22" s="1">
-        <v>6.62</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
@@ -1606,40 +1577,40 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1">
-        <v>34.83</v>
+        <v>34.85</v>
       </c>
       <c r="D23" s="1">
-        <v>2.2599999999999998</v>
+        <v>2.14</v>
       </c>
       <c r="E23" s="1">
-        <v>11.39</v>
+        <v>10.65</v>
       </c>
       <c r="F23" s="1">
-        <v>18.82</v>
+        <v>18.53</v>
       </c>
       <c r="G23" s="1">
         <v>0.32</v>
       </c>
       <c r="H23" s="1">
-        <v>3.74</v>
+        <v>3.27</v>
       </c>
       <c r="I23" s="1">
-        <v>23.22</v>
+        <v>23.61</v>
       </c>
       <c r="J23" s="1">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K23" s="1">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="L23" s="1">
-        <v>94.78</v>
+        <v>93.52</v>
       </c>
       <c r="M23" s="1">
-        <v>5.22</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
@@ -1647,40 +1618,40 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1">
-        <v>35.32</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="E24" s="1">
-        <v>11.47</v>
+        <v>12.07</v>
       </c>
       <c r="F24" s="1">
-        <v>19.809999999999999</v>
+        <v>19.72</v>
       </c>
       <c r="G24" s="1">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="H24" s="1">
-        <v>1.53</v>
+        <v>4.68</v>
       </c>
       <c r="I24" s="1">
-        <v>20.79</v>
+        <v>20.65</v>
       </c>
       <c r="J24" s="1">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="K24" s="1">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="L24" s="1">
-        <v>90.07</v>
+        <v>93.38</v>
       </c>
       <c r="M24" s="1">
-        <v>9.93</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
@@ -1688,40 +1659,40 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1">
-        <v>35.659999999999997</v>
+        <v>34.83</v>
       </c>
       <c r="D25" s="1">
-        <v>1.99</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>11.22</v>
+        <v>11.39</v>
       </c>
       <c r="F25" s="1">
-        <v>19.62</v>
+        <v>18.82</v>
       </c>
       <c r="G25" s="1">
-        <v>0.13</v>
+        <v>0.32</v>
       </c>
       <c r="H25" s="1">
-        <v>1.54</v>
+        <v>3.74</v>
       </c>
       <c r="I25" s="1">
-        <v>21.93</v>
+        <v>23.22</v>
       </c>
       <c r="J25" s="1">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="K25" s="1">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="L25" s="1">
-        <v>92.23</v>
+        <v>94.78</v>
       </c>
       <c r="M25" s="1">
-        <v>7.77</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
@@ -1729,40 +1700,40 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1">
-        <v>35.369999999999997</v>
+        <v>35.32</v>
       </c>
       <c r="D26" s="1">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="E26" s="1">
-        <v>11.23</v>
+        <v>11.47</v>
       </c>
       <c r="F26" s="1">
-        <v>19.850000000000001</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="G26" s="1">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="H26" s="1">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="I26" s="1">
-        <v>21.2</v>
+        <v>20.79</v>
       </c>
       <c r="J26" s="1">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="K26" s="1">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="L26" s="1">
-        <v>91.35</v>
+        <v>90.07</v>
       </c>
       <c r="M26" s="1">
-        <v>8.65</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
@@ -1770,40 +1741,40 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1">
-        <v>35.44</v>
+        <v>35.659999999999997</v>
       </c>
       <c r="D27" s="1">
-        <v>1.03</v>
+        <v>1.99</v>
       </c>
       <c r="E27" s="1">
-        <v>11.24</v>
+        <v>11.22</v>
       </c>
       <c r="F27" s="1">
-        <v>20.46</v>
+        <v>19.62</v>
       </c>
       <c r="G27" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="H27" s="1">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="I27" s="1">
-        <v>21.74</v>
+        <v>21.93</v>
       </c>
       <c r="J27" s="1">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="K27" s="1">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="L27" s="1">
-        <v>91.83</v>
+        <v>92.23</v>
       </c>
       <c r="M27" s="1">
-        <v>8.17</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
@@ -1811,40 +1782,40 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1">
-        <v>35.729999999999997</v>
+        <v>35.369999999999997</v>
       </c>
       <c r="D28" s="1">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="E28" s="1">
-        <v>11.29</v>
+        <v>11.23</v>
       </c>
       <c r="F28" s="1">
-        <v>19.739999999999998</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="G28" s="1">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="H28" s="1">
-        <v>1.69</v>
+        <v>1.47</v>
       </c>
       <c r="I28" s="1">
-        <v>22.05</v>
+        <v>21.2</v>
       </c>
       <c r="J28" s="1">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="K28" s="1">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="L28" s="1">
-        <v>92.55</v>
+        <v>91.35</v>
       </c>
       <c r="M28" s="1">
-        <v>7.45</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -1852,40 +1823,40 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C29" s="1">
-        <v>36.26</v>
+        <v>35.44</v>
       </c>
       <c r="D29" s="1">
-        <v>1.28</v>
+        <v>1.03</v>
       </c>
       <c r="E29" s="1">
-        <v>14.18</v>
+        <v>11.24</v>
       </c>
       <c r="F29" s="1">
-        <v>17.559999999999999</v>
+        <v>20.46</v>
       </c>
       <c r="G29" s="1">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H29" s="1">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="I29" s="1">
-        <v>22.58</v>
+        <v>21.74</v>
       </c>
       <c r="J29" s="1">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="L29" s="1">
-        <v>93.96</v>
+        <v>91.83</v>
       </c>
       <c r="M29" s="1">
-        <v>6.04</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
@@ -1893,40 +1864,40 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30" s="1">
-        <v>36.229999999999997</v>
+        <v>35.729999999999997</v>
       </c>
       <c r="D30" s="1">
-        <v>1.26</v>
+        <v>1.68</v>
       </c>
       <c r="E30" s="1">
-        <v>14.47</v>
+        <v>11.29</v>
       </c>
       <c r="F30" s="1">
-        <v>17.239999999999998</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="G30" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H30" s="1">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="I30" s="1">
-        <v>22.53</v>
+        <v>22.05</v>
       </c>
       <c r="J30" s="1">
         <v>0.08</v>
       </c>
       <c r="K30" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L30" s="1">
-        <v>93.66</v>
+        <v>92.55</v>
       </c>
       <c r="M30" s="1">
-        <v>6.34</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
@@ -1934,40 +1905,40 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1">
-        <v>36.15</v>
+        <v>36.26</v>
       </c>
       <c r="D31" s="1">
         <v>1.28</v>
       </c>
       <c r="E31" s="1">
-        <v>14.17</v>
+        <v>14.18</v>
       </c>
       <c r="F31" s="1">
-        <v>16.690000000000001</v>
+        <v>17.559999999999999</v>
       </c>
       <c r="G31" s="1">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="H31" s="1">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="I31" s="1">
-        <v>21.88</v>
+        <v>22.58</v>
       </c>
       <c r="J31" s="1">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="K31" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1">
-        <v>92.22</v>
+        <v>93.96</v>
       </c>
       <c r="M31" s="1">
-        <v>7.78</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
@@ -1975,40 +1946,40 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1">
-        <v>35.590000000000003</v>
+        <v>36.229999999999997</v>
       </c>
       <c r="D32" s="1">
-        <v>0.77</v>
+        <v>1.26</v>
       </c>
       <c r="E32" s="1">
-        <v>11.36</v>
+        <v>14.47</v>
       </c>
       <c r="F32" s="1">
-        <v>19.66</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="G32" s="1">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="H32" s="1">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="I32" s="1">
-        <v>21.85</v>
+        <v>22.53</v>
       </c>
       <c r="J32" s="1">
         <v>0.08</v>
       </c>
       <c r="K32" s="1">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L32" s="1">
-        <v>91.28</v>
+        <v>93.66</v>
       </c>
       <c r="M32" s="1">
-        <v>8.7200000000000006</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
@@ -2016,40 +1987,40 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" s="1">
-        <v>35.270000000000003</v>
+        <v>36.15</v>
       </c>
       <c r="D33" s="1">
-        <v>0.17</v>
+        <v>1.28</v>
       </c>
       <c r="E33" s="1">
-        <v>11.59</v>
+        <v>14.17</v>
       </c>
       <c r="F33" s="1">
-        <v>20.99</v>
+        <v>16.690000000000001</v>
       </c>
       <c r="G33" s="1">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="H33" s="1">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="I33" s="1">
-        <v>21.65</v>
+        <v>21.88</v>
       </c>
       <c r="J33" s="1">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="K33" s="1">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="L33" s="1">
-        <v>91.55</v>
+        <v>92.22</v>
       </c>
       <c r="M33" s="1">
-        <v>8.4499999999999993</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
@@ -2057,40 +2028,40 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1">
-        <v>35.31</v>
+        <v>35.590000000000003</v>
       </c>
       <c r="D34" s="1">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="E34" s="1">
-        <v>11.33</v>
+        <v>11.36</v>
       </c>
       <c r="F34" s="1">
-        <v>20.14</v>
+        <v>19.66</v>
       </c>
       <c r="G34" s="1">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="H34" s="1">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="I34" s="1">
-        <v>21.58</v>
+        <v>21.85</v>
       </c>
       <c r="J34" s="1">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="K34" s="1">
         <v>0.06</v>
       </c>
       <c r="L34" s="1">
-        <v>91.22</v>
+        <v>91.28</v>
       </c>
       <c r="M34" s="1">
-        <v>8.7899999999999991</v>
+        <v>8.7200000000000006</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
@@ -2098,40 +2069,40 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1">
-        <v>35.68</v>
+        <v>35.270000000000003</v>
       </c>
       <c r="D35" s="1">
-        <v>0.72</v>
+        <v>0.17</v>
       </c>
       <c r="E35" s="1">
-        <v>11.48</v>
+        <v>11.59</v>
       </c>
       <c r="F35" s="1">
-        <v>19.940000000000001</v>
+        <v>20.99</v>
       </c>
       <c r="G35" s="1">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="H35" s="1">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="I35" s="1">
-        <v>21.05</v>
+        <v>21.65</v>
       </c>
       <c r="J35" s="1">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="K35" s="1">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="L35" s="1">
-        <v>91.06</v>
+        <v>91.55</v>
       </c>
       <c r="M35" s="1">
-        <v>8.94</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
@@ -2139,40 +2110,40 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1">
-        <v>35.049999999999997</v>
+        <v>35.31</v>
       </c>
       <c r="D36" s="1">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="E36" s="1">
-        <v>11.69</v>
+        <v>11.33</v>
       </c>
       <c r="F36" s="1">
-        <v>20.12</v>
+        <v>20.14</v>
       </c>
       <c r="G36" s="1">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="H36" s="1">
-        <v>1.69</v>
+        <v>1.53</v>
       </c>
       <c r="I36" s="1">
-        <v>21.06</v>
+        <v>21.58</v>
       </c>
       <c r="J36" s="1">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="K36" s="1">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="L36" s="1">
-        <v>90.67</v>
+        <v>91.22</v>
       </c>
       <c r="M36" s="1">
-        <v>9.33</v>
+        <v>8.7899999999999991</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
@@ -2180,40 +2151,40 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1">
-        <v>35.619999999999997</v>
+        <v>35.68</v>
       </c>
       <c r="D37" s="1">
-        <v>2.62</v>
+        <v>0.72</v>
       </c>
       <c r="E37" s="1">
-        <v>10.69</v>
+        <v>11.48</v>
       </c>
       <c r="F37" s="1">
-        <v>17.440000000000001</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="G37" s="1">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="H37" s="1">
-        <v>1.33</v>
+        <v>1.77</v>
       </c>
       <c r="I37" s="1">
-        <v>24.65</v>
+        <v>21.05</v>
       </c>
       <c r="J37" s="1">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="K37" s="1">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="L37" s="1">
-        <v>92.75</v>
+        <v>91.06</v>
       </c>
       <c r="M37" s="1">
-        <v>7.26</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
@@ -2221,40 +2192,40 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1">
-        <v>35.46</v>
+        <v>35.049999999999997</v>
       </c>
       <c r="D38" s="1">
-        <v>3.01</v>
+        <v>0.75</v>
       </c>
       <c r="E38" s="1">
-        <v>10.54</v>
+        <v>11.69</v>
       </c>
       <c r="F38" s="1">
-        <v>17.53</v>
+        <v>20.12</v>
       </c>
       <c r="G38" s="1">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="H38" s="1">
-        <v>1.24</v>
+        <v>1.69</v>
       </c>
       <c r="I38" s="1">
-        <v>24.95</v>
+        <v>21.06</v>
       </c>
       <c r="J38" s="1">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="K38" s="1">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="L38" s="1">
-        <v>93.21</v>
+        <v>90.67</v>
       </c>
       <c r="M38" s="1">
-        <v>6.79</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
@@ -2262,40 +2233,40 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C39" s="1">
-        <v>35.409999999999997</v>
+        <v>35.619999999999997</v>
       </c>
       <c r="D39" s="1">
-        <v>3.09</v>
+        <v>2.62</v>
       </c>
       <c r="E39" s="1">
-        <v>9.8800000000000008</v>
+        <v>10.69</v>
       </c>
       <c r="F39" s="1">
-        <v>17.93</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="G39" s="1">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="H39" s="1">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="I39" s="1">
-        <v>25.72</v>
+        <v>24.65</v>
       </c>
       <c r="J39" s="1">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="K39" s="1">
         <v>0.04</v>
       </c>
       <c r="L39" s="1">
-        <v>93.73</v>
+        <v>92.75</v>
       </c>
       <c r="M39" s="1">
-        <v>6.27</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
@@ -2303,40 +2274,40 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1">
-        <v>35.21</v>
+        <v>35.46</v>
       </c>
       <c r="D40" s="1">
-        <v>1.93</v>
+        <v>3.01</v>
       </c>
       <c r="E40" s="1">
-        <v>10.37</v>
+        <v>10.54</v>
       </c>
       <c r="F40" s="1">
-        <v>19.68</v>
+        <v>17.53</v>
       </c>
       <c r="G40" s="1">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="H40" s="1">
-        <v>1.54</v>
+        <v>1.24</v>
       </c>
       <c r="I40" s="1">
-        <v>22.96</v>
+        <v>24.95</v>
       </c>
       <c r="J40" s="1">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="K40" s="1">
         <v>0.04</v>
       </c>
       <c r="L40" s="1">
-        <v>92.16</v>
+        <v>93.21</v>
       </c>
       <c r="M40" s="1">
-        <v>7.84</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
@@ -2344,40 +2315,40 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41" s="1">
-        <v>35.799999999999997</v>
+        <v>35.409999999999997</v>
       </c>
       <c r="D41" s="1">
-        <v>1.54</v>
+        <v>3.09</v>
       </c>
       <c r="E41" s="1">
-        <v>11.55</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="F41" s="1">
-        <v>19.45</v>
+        <v>17.93</v>
       </c>
       <c r="G41" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="H41" s="1">
-        <v>1.55</v>
+        <v>1.22</v>
       </c>
       <c r="I41" s="1">
-        <v>22.58</v>
+        <v>25.72</v>
       </c>
       <c r="J41" s="1">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="L41" s="1">
-        <v>92.79</v>
+        <v>93.73</v>
       </c>
       <c r="M41" s="1">
-        <v>7.21</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
@@ -2385,40 +2356,40 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1">
-        <v>35.53</v>
+        <v>35.21</v>
       </c>
       <c r="D42" s="1">
-        <v>2.7</v>
+        <v>1.93</v>
       </c>
       <c r="E42" s="1">
-        <v>11.02</v>
+        <v>10.37</v>
       </c>
       <c r="F42" s="1">
-        <v>18.920000000000002</v>
+        <v>19.68</v>
       </c>
       <c r="G42" s="1">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="H42" s="1">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="I42" s="1">
-        <v>22.98</v>
+        <v>22.96</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="L42" s="1">
-        <v>92.86</v>
+        <v>92.16</v>
       </c>
       <c r="M42" s="1">
-        <v>7.14</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
@@ -2426,40 +2397,40 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1">
-        <v>35.369999999999997</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="D43" s="1">
-        <v>0.91</v>
+        <v>1.54</v>
       </c>
       <c r="E43" s="1">
-        <v>11.38</v>
+        <v>11.55</v>
       </c>
       <c r="F43" s="1">
-        <v>19.920000000000002</v>
+        <v>19.45</v>
       </c>
       <c r="G43" s="1">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H43" s="1">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="I43" s="1">
-        <v>22.19</v>
+        <v>22.58</v>
       </c>
       <c r="J43" s="1">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="K43" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1">
-        <v>91.65</v>
+        <v>92.79</v>
       </c>
       <c r="M43" s="1">
-        <v>8.35</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
@@ -2467,40 +2438,127 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44" s="1">
-        <v>35.380000000000003</v>
+        <v>35.53</v>
       </c>
       <c r="D44" s="1">
-        <v>1.01</v>
+        <v>2.7</v>
       </c>
       <c r="E44" s="1">
-        <v>11.37</v>
+        <v>11.02</v>
       </c>
       <c r="F44" s="1">
-        <v>20.059999999999999</v>
+        <v>18.920000000000002</v>
       </c>
       <c r="G44" s="1">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="H44" s="1">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="I44" s="1">
-        <v>22.24</v>
+        <v>22.98</v>
       </c>
       <c r="J44" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
         <v>0</v>
       </c>
       <c r="L44" s="1">
+        <v>92.86</v>
+      </c>
+      <c r="M44" s="1">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="1">
+        <v>35.369999999999997</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="E45" s="1">
+        <v>11.38</v>
+      </c>
+      <c r="F45" s="1">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1.59</v>
+      </c>
+      <c r="I45" s="1">
+        <v>22.19</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L45" s="1">
+        <v>91.65</v>
+      </c>
+      <c r="M45" s="1">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="1">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="E46" s="1">
+        <v>11.37</v>
+      </c>
+      <c r="F46" s="1">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="I46" s="1">
+        <v>22.24</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
         <v>91.85</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M46" s="1">
         <v>8.15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
